--- a/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareas_Miu_Andrei.xlsx
+++ b/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareas_Miu_Andrei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP_PHP_ANDREI\htdocs\WorkSpace_VSCode\EntornoServidor(PHP)\Ejercicios\Tema1\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D2204-1196-4180-97CC-49A2F9EE8E84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC857847-7E67-4629-9E3F-52E2026A905C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Lista de tareas pendientes (Product Backlog)</t>
   </si>
@@ -260,6 +260,14 @@
     <t>He realizado las investigaciones propuestas en el ejercicio 20 y realizado correctamente las prácticas planteadas en los ejercicios 20 y 21, optimizando el código para que sea más eficiente</t>
   </si>
   <si>
+    <t>Como programador de PHP debo conocer cómo se definen los arrays en PHP para poder emplearlos en los guiones que cree</t>
+  </si>
+  <si>
+    <t>He realizado las investigaciones propuestas  en el ejercicio 22 y realizado 
+correctamente las prácticas planteadas en el ejercicio 22, optimizando el código 
+para que sea más eficiente</t>
+  </si>
+  <si>
     <t>Como programador de PHP debo conocer las estructuras iterativas que definie el 
 lenguaje para recorrer eficientemente los arrays</t>
   </si>
@@ -278,19 +286,11 @@
 en el ejercicio 23,  optimizando el código para que sea más eficiente</t>
   </si>
   <si>
-    <t>Como programador de PHP debo conocer cómo se definen los arrays en PHP para poder emplearlos en los guiones que cree</t>
-  </si>
-  <si>
-    <t>He realizado las investigaciones propuestas  en el ejercicio 22 y realizado 
-correctamente las prácticas planteadas en el ejercicio 22, optimizando el código 
-para que sea más eficiente</t>
-  </si>
-  <si>
     <t>Como programador de PHP debo conocer cómo crear y modificar arrays en tiempo 
 de ejecución y aprovecharme de las claves asociativas para construir código más eficiente</t>
   </si>
   <si>
-    <t>He realizado correctamente las prácticas planteadas en el ejercicio 25, 26 y 27 optimizando el código para que sea más eficiente</t>
+    <t>He realizado correctamente las prácticas planteadas en el ejercicio 25, 26, 27,28 y 29, optimizando el código para que sea más eficiente</t>
   </si>
 </sst>
 </file>
@@ -312,14 +312,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -351,15 +351,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -374,33 +383,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,669 +714,785 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="16">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="16">
         <v>65</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="16">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="16">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="16">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="16">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="16">
         <v>50</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="16">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="16">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="16">
         <v>60</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="16">
         <v>50</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="16">
         <v>30</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="16">
         <v>70</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="16">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="16">
         <v>10</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="16">
         <v>30</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="18">
+        <v>40</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareas_Miu_Andrei.xlsx
+++ b/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareas_Miu_Andrei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP_PHP_ANDREI\htdocs\WorkSpace_VSCode\EntornoServidor(PHP)\Ejercicios\Tema1\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC857847-7E67-4629-9E3F-52E2026A905C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E621A-87FB-4924-9013-73ED9261C135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Lista de tareas pendientes (Product Backlog)</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>Como programador de PHP debo conocer cómo crear y modificar arrays en tiempo 
 de ejecución y aprovecharme de las claves asociativas para construir código más eficiente</t>
+  </si>
+  <si>
+    <t>240'</t>
   </si>
   <si>
     <t>He realizado correctamente las prácticas planteadas en el ejercicio 25, 26, 27,28 y 29, optimizando el código para que sea más eficiente</t>
@@ -312,15 +315,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,15 +362,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -382,31 +388,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,18 +701,18 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,20 +747,20 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4"/>
@@ -783,54 +770,54 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="1">
         <v>65</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="4"/>
@@ -840,54 +827,54 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="1">
         <v>30</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="4"/>
@@ -897,16 +884,16 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="4"/>
@@ -916,16 +903,16 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="1">
         <v>25</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="4"/>
@@ -935,16 +922,16 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="4"/>
@@ -954,16 +941,16 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="4"/>
@@ -973,16 +960,16 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="4"/>
@@ -992,16 +979,16 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="1">
         <v>50</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="4"/>
@@ -1011,16 +998,16 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="4"/>
@@ -1030,16 +1017,16 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="4"/>
@@ -1049,16 +1036,16 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="4"/>
@@ -1068,16 +1055,16 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="1">
         <v>50</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="4"/>
@@ -1087,16 +1074,16 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="1">
         <v>30</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="4"/>
@@ -1106,16 +1093,16 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="1">
         <v>70</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="4"/>
@@ -1125,16 +1112,16 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="1">
         <v>30</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="4"/>
@@ -1144,16 +1131,16 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="1">
         <v>10</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="4"/>
@@ -1163,334 +1150,346 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="1">
         <v>30</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="1">
         <v>40</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="1">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="13">
+        <v>85</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>68</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
